--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.219599999999996</v>
+        <v>9.262999999999995</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.542299999999998</v>
+        <v>6.2615</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.401700000000004</v>
+        <v>5.296100000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.8024</v>
+        <v>15.92590000000001</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.457299999999999</v>
+        <v>6.089600000000002</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>17.2087</v>
+        <v>17.17559999999999</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.7129</v>
+        <v>17.8607</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.21990000000001</v>
+        <v>16.2922</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.474799999999999</v>
+        <v>6.8979</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.605699999999986</v>
+        <v>9.554499999999988</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.86069999999999</v>
+        <v>15.84209999999999</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.139199999999995</v>
+        <v>9.21689999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.82230000000001</v>
+        <v>16.77150000000001</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.74710000000001</v>
+        <v>16.70390000000001</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.18419999999999</v>
+        <v>16.10269999999998</v>
       </c>
     </row>
     <row r="24">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.732200000000001</v>
+        <v>6.059500000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.525999999999998</v>
+        <v>5.3853</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.21470000000001</v>
+        <v>17.22570000000002</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.4274</v>
+        <v>5.133800000000003</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.284399999999994</v>
+        <v>7.404299999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.01750000000001</v>
+        <v>17.099</v>
       </c>
     </row>
     <row r="35">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.110399999999998</v>
+        <v>8.880399999999996</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.5827</v>
+        <v>16.5255</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.38780000000001</v>
+        <v>17.33220000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.68149999999999</v>
+        <v>16.549</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.5104</v>
+        <v>16.51959999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.762799999999999</v>
+        <v>5.660100000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.5311</v>
+        <v>16.4997</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.6682</v>
+        <v>16.6405</v>
       </c>
     </row>
     <row r="51">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.603099999999999</v>
+        <v>5.542099999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.19220000000001</v>
+        <v>17.13800000000002</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.572300000000001</v>
+        <v>5.6088</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.967599999999999</v>
+        <v>5.3746</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7725</v>
+        <v>16.72029999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.012799999999997</v>
+        <v>4.793899999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>6.6995</v>
+        <v>5.721300000000005</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.45940000000001</v>
+        <v>17.50380000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1553,7 +1553,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.334899999999994</v>
+        <v>5.689299999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>16.95620000000002</v>
+        <v>17.13650000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.12300000000002</v>
+        <v>17.12650000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.4156</v>
+        <v>8.468</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.084699999999996</v>
+        <v>8.684899999999997</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.932800000000007</v>
+        <v>9.290899999999999</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.14740000000002</v>
+        <v>18.19510000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.79069999999999</v>
+        <v>16.85349999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.22619999999999</v>
+        <v>16.16629999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.856599999999998</v>
+        <v>4.743600000000001</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.49400000000001</v>
+        <v>18.82100000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.6962</v>
+        <v>16.6641</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.459300000000001</v>
+        <v>5.745799999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
